--- a/biology/Zoologie/Genysa_decorsei_(Genysochoera)/Genysa_decorsei_(Genysochoera).xlsx
+++ b/biology/Zoologie/Genysa_decorsei_(Genysochoera)/Genysa_decorsei_(Genysochoera).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Genysa decorsei est une espèce d'araignées mygalomorphes de la famille des Idiopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Genysa decorsei est une espèce d'araignées mygalomorphes de la famille des Idiopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 45 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 45 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gaston Jules Decorse[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Gaston Jules Decorse.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Deux espèces portent le nom de Genysa decorsei, elles ont toutes les deux été décrites par Eugène Simon en 1902 dans le même article à partir d'araignées collectées par Gaston Jules Decorse à Madagascar. Elles ont été décrites dans deux genres Diadocyrtus et Genysochoera placés en synonymie avec Genysa par Raven en 1985[3]. Si Diadocyrtus decorsei et Genysochoera decorsei ne sont pas conspécifique un nom de substitution est nécessaire[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux espèces portent le nom de Genysa decorsei, elles ont toutes les deux été décrites par Eugène Simon en 1902 dans le même article à partir d'araignées collectées par Gaston Jules Decorse à Madagascar. Elles ont été décrites dans deux genres Diadocyrtus et Genysochoera placés en synonymie avec Genysa par Raven en 1985. Si Diadocyrtus decorsei et Genysochoera decorsei ne sont pas conspécifique un nom de substitution est nécessaire.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Simon, 1902 : Description d'arachnides nouveaux de la famille des Aviculariides faisant partie de collections du Muséum. Bulletin du muséum d'Histoire naturelle de Paris, vol. 8, p. 595-599 (texte intégral).</t>
         </is>
